--- a/Chisel和Verilog测评.xlsx
+++ b/Chisel和Verilog测评.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ucas\计算所实习\Pumpkin实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCAS\计算所实习\Pumpkin实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AF001-CAF8-4A9E-9EFF-5C440A4C5E24}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F14C4A-AE20-4D6F-87A4-BA7673E00CC4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9340" windowHeight="4950" xr2:uid="{A6E9DE40-1034-403A-951E-C6D4D5C1CC3C}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082CFA41-5FBF-4329-82C6-466FF13DA784}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,7 +1242,7 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="D3" s="4">
-        <v>0.189</v>
+        <v>0.877</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1260,7 +1260,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>2.7E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1278,7 +1278,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="D5" s="5">
-        <v>0.70399999999999996</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
